--- a/biology/Zoologie/Chiasmocleis_avilapiresae/Chiasmocleis_avilapiresae.xlsx
+++ b/biology/Zoologie/Chiasmocleis_avilapiresae/Chiasmocleis_avilapiresae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis avilapiresae est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis avilapiresae est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États d'Amazonas, d'Acre, du Mato Grosso, du Pará et du Rondônia[1]. Sa présence est incertaine dans l’extrême Nord de la Bolivie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États d'Amazonas, d'Acre, du Mato Grosso, du Pará et du Rondônia. Sa présence est incertaine dans l’extrême Nord de la Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Teresa Cristina Sauer de Ávila-Pires[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Teresa Cristina Sauer de Ávila-Pires.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peloso &amp; Sturaro, 2008 : A new species of narrow-mouthed frog of the genus Chiasmocleis Méhelÿ 1904 (Anura, Microhylidae) from the Amazonian rainforest of Brazil. Zootaxa, no 1947, p. 39–52.</t>
         </is>
